--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3046442.883985559</v>
+        <v>3150622.51843663</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>315.0833133550126</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>88.919330187466</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>92.70483570961643</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -826,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.3975998694276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>210.6046526660743</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>151.3893633796405</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>167.0335056422224</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>146.6525686002696</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>321.8569264256859</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>97.27989568773765</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>146.9083821604494</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701343</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428173</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>174.7683347992572</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444106</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.26260713376557</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695385</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784659</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="27">
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>180.8909947756157</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>36.00502760852028</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H31" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>20.92847288552853</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>26.05480806223585</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179425</v>
+        <v>35.63623515385375</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>3.475606507923782</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>68.17501931583779</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.35059460820201</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2437.540955708454</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379707</v>
+        <v>2084.772300438339</v>
       </c>
       <c r="X2" t="n">
-        <v>2435.796531379707</v>
+        <v>1711.306542177259</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>1321.167210201447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>2343.035006464575</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>2174.098823536669</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>2023.982184124333</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>1876.06909054194</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>1708.366253916659</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>3133.919937435998</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="U4" t="n">
-        <v>3044.089480193524</v>
+        <v>2912.153322005524</v>
       </c>
       <c r="V4" t="n">
-        <v>3044.089480193524</v>
+        <v>2657.468833799637</v>
       </c>
       <c r="W4" t="n">
-        <v>3044.089480193524</v>
+        <v>2657.468833799637</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936254</v>
+        <v>2657.468833799637</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>2436.676254656107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1878.169188758594</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1519.903490151843</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1134.115237553599</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>907.8932097569433</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4761,16 @@
         <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1356.675339798491</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.675339798491</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.685788900473</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.8932097569433</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1959.379186075721</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W8" t="n">
-        <v>2736.118358115654</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X8" t="n">
-        <v>2736.118358115654</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.979026139843</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8175152271517</v>
+        <v>333.710820256795</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8175152271517</v>
+        <v>164.7746373288881</v>
       </c>
       <c r="D10" t="n">
-        <v>362.8175152271517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>214.9044216447586</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>214.9044216447586</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8175152271517</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718727</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356203</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232844</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408912</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429807</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2203.383708318261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1983.782243341202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.782243341202</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135315</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237298</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093767</v>
       </c>
     </row>
     <row r="14">
@@ -5267,46 +5269,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>542.9134462654475</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654475</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168579</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362654</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192491</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921487</v>
+        <v>2726.914133601551</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187003</v>
+        <v>2854.440648734751</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>3482.038612289357</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>4033.948342528644</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023712</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5819,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>409.1360811687904</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>904.461687384549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.840175011101</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188007</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533435</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925705</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490404</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,22 +5980,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972543</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.67509321183</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6239,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797182</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452619</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718135</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>3838.083511855031</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511905</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
         <v>631.7012443408905</v>
@@ -6379,16 +6381,16 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W28" t="n">
-        <v>1397.332650892738</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X28" t="n">
-        <v>1169.343099994721</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y28" t="n">
-        <v>948.5505208511905</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>983.3556038098237</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>814.4194208819168</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>664.3027814695811</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>516.389687887188</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>369.4997403892776</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G31" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6649,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1613.786198681611</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1385.796647783593</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>1165.004068640063</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6841,19 +6843,19 @@
         <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>261.8464821474262</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>261.8464821474262</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505192</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>3809.631423131744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>4437.229386686351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>4437.229386686351</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4437.229386686351</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4670.491047061233</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>4681.594624329724</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>4498.739789984628</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>4279.13832500757</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,19 +7262,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762953</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>815.6105350483884</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806535</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7439,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7685,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7849,7 +7851,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864951</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>6.257951202387517</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194222</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>27.76311574357379</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.1352912260288974</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H31" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.469330230033</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194083</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.4693302300329</v>
+        <v>112.9792378643586</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.1398665102886</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>77.24602870709346</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312478</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
-      </c>
       <c r="E2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="F2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.801269209172961e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184261</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184289</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184288</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="J4" t="n">
+        <v>13606.80811184287</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184281</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13606.80811184289</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184281</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26524,46 @@
         <v>-811060.9805409322</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866605</v>
+        <v>517683.7651866608</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866607</v>
+        <v>517683.7651866606</v>
       </c>
       <c r="E6" t="n">
-        <v>266111.474985651</v>
+        <v>266111.4749856508</v>
       </c>
       <c r="F6" t="n">
         <v>591523.9367930056</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930057</v>
+        <v>591523.9367930058</v>
       </c>
       <c r="H6" t="n">
         <v>591523.9367930057</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930056</v>
+        <v>591523.9367930057</v>
       </c>
       <c r="J6" t="n">
-        <v>373992.7343957282</v>
+        <v>373992.7343957279</v>
       </c>
       <c r="K6" t="n">
-        <v>591523.9367930056</v>
+        <v>591523.9367930058</v>
       </c>
       <c r="L6" t="n">
         <v>591523.9367930057</v>
       </c>
       <c r="M6" t="n">
-        <v>506468.908857494</v>
+        <v>506468.9088574935</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930056</v>
+        <v>591523.9367930057</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930056</v>
+        <v>591523.9367930057</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930056</v>
+        <v>591523.9367930059</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>12.66894511512231</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>297.3186084685876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>87.12714447232086</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.47844587228388</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>159.1264480123947</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.85745771898729</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>51.55114770987237</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>202.5884001171434</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>64.38101223036767</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>51.33557733047471</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>19.11742609857879</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28248,73 +28250,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-1.335677352165616e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-1.399222618112197e-13</v>
       </c>
     </row>
     <row r="14">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.460777858828178e-12</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.751586511466202e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29764,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31613,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>610.0546826043653</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>440.3163285600368</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067222</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,37 +32314,37 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>211.7351844430279</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>270.948695672725</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>305.1876769472519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32786,37 +32788,37 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33023,37 +33025,37 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209201</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>340.4395077511225</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33260,37 +33262,37 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.537151478685</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33497,28 +33499,28 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>166.2270851128129</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33977,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>742.9354859824765</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>189.0011860882997</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35261,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>471.5003028244911</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35580,13 +35582,13 @@
         <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>302.4748895856778</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316259</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>73.18080466315375</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>128.8146617507067</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>167.3462379728929</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>37.76383318075232</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410459</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>197.8432633066781</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342406</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>20.5475811488489</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>611.5937738991432</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>477.9853321427316</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>57.65947400496642</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150622.51843663</v>
+        <v>3146609.908422639</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>140.4615936850608</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>315.0833133550126</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.70483570961643</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,19 +873,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>248.1192912178441</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.84399365306312</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>210.6046526660743</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>13.02719212039625</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>167.0335056422224</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>273.0529551528114</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>321.8569264256859</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>97.27989568773765</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>52.47682210853034</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856566</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101218</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>174.7683347992572</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>100.0416311957221</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>31.26260713376557</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>117.6579322793575</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695385</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>56.03635866484527</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>180.8909947756157</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>20.92847288552853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>35.63623515385375</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3793,10 +3793,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>3.475606507923782</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.35059460820201</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>934.5673701373257</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="C2" t="n">
-        <v>934.5673701373257</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1344.747170633477</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>958.9589180352325</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>547.973013245625</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.540955708454</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.772300438339</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.306542177259</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1321.167210201447</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986295</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2343.035006464575</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C4" t="n">
-        <v>2174.098823536669</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D4" t="n">
-        <v>2023.982184124333</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.06909054194</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.06909054194</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916659</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435998</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>2912.153322005524</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="V4" t="n">
-        <v>2657.468833799637</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="W4" t="n">
-        <v>2657.468833799637</v>
+        <v>1173.386044557682</v>
       </c>
       <c r="X4" t="n">
-        <v>2657.468833799637</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="Y4" t="n">
-        <v>2436.676254656107</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
         <v>1678.62132134232</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2065.221161406442</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2065.221161406442</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574644</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574644</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>79.67089635177561</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>812.5736815556431</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>584.5841306576258</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>764.341133147311</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>353.3552283577034</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>342.323182243104</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4813,13 +4813,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4837,19 +4837,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883008</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883008</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621928</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y8" t="n">
-        <v>2373.501580131336</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>333.710820256795</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>164.7746373288881</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>554.5033994003252</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>333.710820256795</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356203</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232844</v>
+        <v>583.3384263047948</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408912</v>
+        <v>435.4253327224017</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429807</v>
+        <v>288.5353852244913</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.383708318261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1983.782243341202</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.782243341202</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135315</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135315</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237298</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093767</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>343.0994656851783</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2231.588527385792</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2726.914133601551</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>2854.440648734751</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3482.038612289357</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528644</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023712</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.7825789706076</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>742.4310438008473</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572603</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>379.8591585748671</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3210.485548300424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3838.083511855031</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.6374272687974</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C28" t="n">
-        <v>631.7012443408905</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.244907039234</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.244907039234</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.169680383432</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.485192177545</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1431.068022140585</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>1203.078471242567</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.2858920990371</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4681.594624329724</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4498.739789984628</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4279.13832500757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,13 +7186,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5467179762953</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6105350483884</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806535</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,37 +7402,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7441,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>869.9745311434716</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>701.0383482155647</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.506784258106</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1789.822296052219</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1500.405126015259</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1272.415575117241</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1051.622995973711</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3403484614387</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4041655335318</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D46" t="n">
-        <v>664.287526121196</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3744325388029</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4844850408925</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>113.0473161837385</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,19 +23466,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.257951202387517</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>186.142843193522</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1584408891657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="23">
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>27.76311574357379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>111.2104624337826</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.1352912260288974</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>125.5054897610406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194083</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>112.9792378643586</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.1398665102886</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
     <row r="8">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
@@ -26346,16 +26346,16 @@
         <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287558</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>7.801269209172961e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319404</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.842883194</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319407</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319398</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184261</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="H4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="I4" t="n">
-        <v>13606.80811184274</v>
-      </c>
       <c r="J4" t="n">
-        <v>13606.80811184287</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811060.9805409322</v>
+        <v>-811060.9805409324</v>
       </c>
       <c r="C6" t="n">
+        <v>517683.7651866607</v>
+      </c>
+      <c r="D6" t="n">
         <v>517683.7651866608</v>
       </c>
-      <c r="D6" t="n">
-        <v>517683.7651866606</v>
-      </c>
       <c r="E6" t="n">
-        <v>266111.4749856508</v>
+        <v>265764.0957312933</v>
       </c>
       <c r="F6" t="n">
-        <v>591523.9367930056</v>
+        <v>591176.5575386485</v>
       </c>
       <c r="G6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386491</v>
       </c>
       <c r="H6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="I6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386486</v>
       </c>
       <c r="J6" t="n">
-        <v>373992.7343957279</v>
+        <v>373645.3551413714</v>
       </c>
       <c r="K6" t="n">
-        <v>591523.9367930058</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="L6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="M6" t="n">
-        <v>506468.9088574935</v>
+        <v>506121.529603137</v>
       </c>
       <c r="N6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="O6" t="n">
-        <v>591523.9367930057</v>
+        <v>591176.5575386488</v>
       </c>
       <c r="P6" t="n">
-        <v>591523.9367930059</v>
+        <v>591176.5575386491</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26807,13 +26807,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>270.4601319683927</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12.66894511512231</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.12714447232086</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>38.0925469877688</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>159.1264480123947</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944184</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.55114770987237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>21.55480923450909</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.38101223036767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>51.33557733047471</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.688177271642585e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28250,73 +28250,73 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.335677352165616e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.399222618112197e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-5.779126741819878e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.460777858828178e-12</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.751586511466202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,37 +32074,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511225</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>530.5785304507785</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33906,7 +33906,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460029</v>
@@ -33970,31 +33970,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>742.9354859824765</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,10 +34207,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>197.8432633066781</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,22 +37393,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>388.4444965287602</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O38" t="n">
         <v>696.4886512243162</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>611.5937738991432</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3146609.908422639</v>
+        <v>3148370.438725424</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>140.4615936850608</v>
+        <v>132.9300514767322</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>248.1192912178441</v>
+        <v>29.53463786574871</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.84399365306312</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>50.84399365306267</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039625</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,7 +1150,7 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>273.0529551528114</v>
+        <v>273.0529551528118</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>217.0914199928489</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>52.47682210853034</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>100.0416311957221</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571659</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.08971311158751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>56.03635866484527</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>176.76214411214</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2071.975386180639</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.012869240227</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D2" t="n">
-        <v>1344.747170633477</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="E2" t="n">
-        <v>958.9589180352325</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="F2" t="n">
-        <v>547.973013245625</v>
+        <v>540.3653948533739</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986295</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4479,28 +4479,28 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,22 +4515,22 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1173.386044557682</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="V4" t="n">
-        <v>1173.386044557682</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="W4" t="n">
-        <v>1173.386044557682</v>
+        <v>1394.178623701213</v>
       </c>
       <c r="X4" t="n">
-        <v>945.3964936596652</v>
+        <v>1166.189072803195</v>
       </c>
       <c r="Y4" t="n">
         <v>945.3964936596652</v>
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1729.978890688848</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1371.713192082098</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>985.9249394838537</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>574.9390346942462</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>159.8665845392426</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4612,7 +4612,7 @@
         <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.941407629261</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177561</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4764,13 +4764,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1491.569348694474</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1122.606831754062</v>
       </c>
       <c r="D8" t="n">
-        <v>764.341133147311</v>
+        <v>764.3411331473114</v>
       </c>
       <c r="E8" t="n">
-        <v>764.341133147311</v>
+        <v>764.3411331473114</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577034</v>
+        <v>353.3552283577039</v>
       </c>
       <c r="G8" t="n">
-        <v>342.323182243104</v>
+        <v>342.3231822431044</v>
       </c>
       <c r="H8" t="n">
         <v>66.51211643218343</v>
@@ -4804,13 +4804,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4819,7 +4819,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4828,22 +4828,22 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
         <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2641.774278995487</v>
       </c>
       <c r="X8" t="n">
         <v>2268.308520734407</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4965,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171305</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>733.4550657171305</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>583.3384263047948</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>435.4253327224017</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>288.5353852244913</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5433,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2126.309465880251</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,22 +5527,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,10 +5843,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851671</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154069</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,31 +6460,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>113.0473161837385</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10.8544504695175</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>186.142843193522</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>111.2104624337826</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>109.4223302771041</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719062.097994014</v>
+        <v>719062.0979940142</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719062.0979940142</v>
+        <v>719062.097994014</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="I2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="J2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287556</v>
       </c>
       <c r="N2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287556</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287558</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811060.9805409324</v>
+        <v>-811060.980540932</v>
       </c>
       <c r="C6" t="n">
-        <v>517683.7651866607</v>
+        <v>517683.7651866608</v>
       </c>
       <c r="D6" t="n">
-        <v>517683.7651866608</v>
+        <v>517683.7651866604</v>
       </c>
       <c r="E6" t="n">
-        <v>265764.0957312933</v>
+        <v>266076.7370602151</v>
       </c>
       <c r="F6" t="n">
-        <v>591176.5575386485</v>
+        <v>591489.1988675694</v>
       </c>
       <c r="G6" t="n">
-        <v>591176.5575386491</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="H6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="I6" t="n">
-        <v>591176.5575386486</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="J6" t="n">
-        <v>373645.3551413714</v>
+        <v>373957.9964702923</v>
       </c>
       <c r="K6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675701</v>
       </c>
       <c r="L6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="M6" t="n">
-        <v>506121.529603137</v>
+        <v>506434.1709320584</v>
       </c>
       <c r="N6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.19886757</v>
       </c>
       <c r="O6" t="n">
-        <v>591176.5575386488</v>
+        <v>591489.1988675699</v>
       </c>
       <c r="P6" t="n">
-        <v>591176.5575386491</v>
+        <v>591489.1988675701</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>270.4601319683927</v>
+        <v>277.9916741767213</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>38.0925469877688</v>
+        <v>256.6772003398642</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.8898480104174</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>243.7637707342578</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>21.55480923450909</v>
+        <v>21.55480923450864</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>69.12041821276401</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.688177271642585e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.189731873468358e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-5.779126741819878e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502014</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587111</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
